--- a/spec/support/roNotListed.xlsx
+++ b/spec/support/roNotListed.xlsx
@@ -7,13 +7,13 @@
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId4"/>
     <sheet name="Board Non-Availability Dates" sheetId="2" r:id="rId5"/>
-    <sheet name="RO &amp; CO Hearing Allocation" sheetId="3" r:id="rId6"/>
+    <sheet name="RO Allocations" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>Example</t>
   </si>
@@ -375,13 +375,10 @@
     <t>Board Non-Availability Dates and Holidays in Date Range</t>
   </si>
   <si>
-    <t>Allocation of Regional Office Video Hearings and Central Office Hearings</t>
+    <t>Allocation of Regional Office Video Hearings</t>
   </si>
   <si>
     <t>Number of Hearing Days Allocated in Date Range</t>
-  </si>
-  <si>
-    <t>Central Office</t>
   </si>
   <si>
     <t>Boston, MA</t>
@@ -532,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -896,50 +893,7 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -959,19 +913,6 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -998,6 +939,32 @@
         <color indexed="8"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
@@ -1009,7 +976,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1184,16 +1151,28 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1202,22 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -6238,7 +6202,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6325,14 +6289,16 @@
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
     </row>
-    <row r="4" ht="30.95" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="60"/>
       <c r="B4" t="s" s="61">
         <v>122</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" t="s" s="62">
+        <v>123</v>
+      </c>
       <c r="D4" s="63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="26"/>
@@ -6348,13 +6314,13 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="64"/>
       <c r="B5" t="s" s="61">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s" s="65">
-        <v>124</v>
-      </c>
-      <c r="D5" s="66">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s" s="62">
         <v>4</v>
+      </c>
+      <c r="D5" s="63">
+        <v>10</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="26"/>
@@ -6368,15 +6334,15 @@
       <c r="N5" s="26"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" t="s" s="61">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s" s="65">
-        <v>4</v>
-      </c>
-      <c r="D6" s="66">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="C6" t="s" s="62">
+        <v>5</v>
+      </c>
+      <c r="D6" s="63">
+        <v>11</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="26"/>
@@ -6390,15 +6356,15 @@
       <c r="N6" s="26"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="65"/>
       <c r="B7" t="s" s="61">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s" s="65">
-        <v>5</v>
-      </c>
-      <c r="D7" s="66">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="C7" t="s" s="62">
+        <v>6</v>
+      </c>
+      <c r="D7" s="63">
+        <v>7</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="26"/>
@@ -6412,15 +6378,15 @@
       <c r="N7" s="26"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="67"/>
+      <c r="A8" s="66"/>
       <c r="B8" t="s" s="61">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s" s="65">
-        <v>6</v>
-      </c>
-      <c r="D8" s="66">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s" s="62">
         <v>7</v>
+      </c>
+      <c r="D8" s="63">
+        <v>4</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="26"/>
@@ -6434,15 +6400,15 @@
       <c r="N8" s="26"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="68"/>
+      <c r="A9" s="66"/>
       <c r="B9" t="s" s="61">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s" s="65">
-        <v>7</v>
-      </c>
-      <c r="D9" s="66">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="C9" t="s" s="62">
+        <v>8</v>
+      </c>
+      <c r="D9" s="63">
+        <v>6</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="26"/>
@@ -6456,15 +6422,15 @@
       <c r="N9" s="26"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="68"/>
+      <c r="A10" s="66"/>
       <c r="B10" t="s" s="61">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s" s="65">
-        <v>8</v>
-      </c>
-      <c r="D10" s="66">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="C10" t="s" s="62">
+        <v>9</v>
+      </c>
+      <c r="D10" s="63">
+        <v>3</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="26"/>
@@ -6478,15 +6444,15 @@
       <c r="N10" s="26"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="66"/>
       <c r="B11" t="s" s="61">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s" s="65">
-        <v>9</v>
-      </c>
-      <c r="D11" s="66">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="C11" t="s" s="62">
+        <v>10</v>
+      </c>
+      <c r="D11" s="63">
+        <v>1</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="26"/>
@@ -6500,15 +6466,15 @@
       <c r="N11" s="26"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="68"/>
+      <c r="A12" s="66"/>
       <c r="B12" t="s" s="61">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s" s="65">
-        <v>10</v>
-      </c>
-      <c r="D12" s="66">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="62">
+        <v>11</v>
+      </c>
+      <c r="D12" s="63">
+        <v>6</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="26"/>
@@ -6522,15 +6488,15 @@
       <c r="N12" s="26"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="66"/>
       <c r="B13" t="s" s="61">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s" s="65">
-        <v>11</v>
-      </c>
-      <c r="D13" s="66">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="C13" t="s" s="62">
+        <v>12</v>
+      </c>
+      <c r="D13" s="63">
+        <v>8</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="26"/>
@@ -6544,15 +6510,15 @@
       <c r="N13" s="26"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="68"/>
+      <c r="A14" s="66"/>
       <c r="B14" t="s" s="61">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s" s="65">
-        <v>12</v>
-      </c>
-      <c r="D14" s="66">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="C14" t="s" s="62">
+        <v>13</v>
+      </c>
+      <c r="D14" s="63">
+        <v>9</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="26"/>
@@ -6566,15 +6532,15 @@
       <c r="N14" s="26"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="66"/>
       <c r="B15" t="s" s="61">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s" s="65">
-        <v>13</v>
-      </c>
-      <c r="D15" s="66">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="C15" t="s" s="62">
+        <v>14</v>
+      </c>
+      <c r="D15" s="63">
+        <v>5</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="26"/>
@@ -6588,15 +6554,15 @@
       <c r="N15" s="26"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="68"/>
+      <c r="A16" s="66"/>
       <c r="B16" t="s" s="61">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s" s="65">
-        <v>14</v>
-      </c>
-      <c r="D16" s="66">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="C16" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="D16" s="63">
+        <v>4</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="26"/>
@@ -6610,15 +6576,15 @@
       <c r="N16" s="26"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="68"/>
+      <c r="A17" s="66"/>
       <c r="B17" t="s" s="61">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s" s="65">
-        <v>15</v>
-      </c>
-      <c r="D17" s="66">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="C17" t="s" s="62">
+        <v>16</v>
+      </c>
+      <c r="D17" s="63">
+        <v>2</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="26"/>
@@ -6632,15 +6598,15 @@
       <c r="N17" s="26"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="68"/>
+      <c r="A18" s="66"/>
       <c r="B18" t="s" s="61">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s" s="65">
-        <v>16</v>
-      </c>
-      <c r="D18" s="66">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="C18" t="s" s="62">
+        <v>17</v>
+      </c>
+      <c r="D18" s="63">
+        <v>5</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="26"/>
@@ -6654,15 +6620,15 @@
       <c r="N18" s="26"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="66"/>
       <c r="B19" t="s" s="61">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s" s="65">
-        <v>17</v>
-      </c>
-      <c r="D19" s="66">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="C19" t="s" s="62">
+        <v>18</v>
+      </c>
+      <c r="D19" s="63">
+        <v>7</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="26"/>
@@ -6676,15 +6642,15 @@
       <c r="N19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="68"/>
+      <c r="A20" s="66"/>
       <c r="B20" t="s" s="61">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s" s="65">
-        <v>18</v>
-      </c>
-      <c r="D20" s="66">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="C20" t="s" s="62">
+        <v>19</v>
+      </c>
+      <c r="D20" s="63">
+        <v>15</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="26"/>
@@ -6698,15 +6664,15 @@
       <c r="N20" s="26"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="66"/>
       <c r="B21" t="s" s="61">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s" s="65">
-        <v>19</v>
-      </c>
-      <c r="D21" s="66">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="C21" t="s" s="62">
+        <v>20</v>
+      </c>
+      <c r="D21" s="63">
+        <v>3</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="26"/>
@@ -6720,15 +6686,15 @@
       <c r="N21" s="26"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="68"/>
+      <c r="A22" s="66"/>
       <c r="B22" t="s" s="61">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s" s="65">
-        <v>20</v>
-      </c>
-      <c r="D22" s="66">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="C22" t="s" s="62">
+        <v>21</v>
+      </c>
+      <c r="D22" s="63">
+        <v>7</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="26"/>
@@ -6742,15 +6708,15 @@
       <c r="N22" s="26"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="66"/>
       <c r="B23" t="s" s="61">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s" s="65">
-        <v>21</v>
-      </c>
-      <c r="D23" s="66">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="C23" t="s" s="62">
+        <v>22</v>
+      </c>
+      <c r="D23" s="63">
+        <v>0</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="26"/>
@@ -6764,15 +6730,15 @@
       <c r="N23" s="26"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="68"/>
+      <c r="A24" s="66"/>
       <c r="B24" t="s" s="61">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s" s="65">
-        <v>22</v>
-      </c>
-      <c r="D24" s="66">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C24" t="s" s="62">
+        <v>23</v>
+      </c>
+      <c r="D24" s="63">
+        <v>3</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="26"/>
@@ -6786,15 +6752,15 @@
       <c r="N24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="68"/>
+      <c r="A25" s="66"/>
       <c r="B25" t="s" s="61">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s" s="65">
-        <v>23</v>
-      </c>
-      <c r="D25" s="66">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="C25" t="s" s="62">
+        <v>24</v>
+      </c>
+      <c r="D25" s="63">
+        <v>7</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="26"/>
@@ -6808,15 +6774,15 @@
       <c r="N25" s="26"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="68"/>
+      <c r="A26" s="66"/>
       <c r="B26" t="s" s="61">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s" s="65">
-        <v>24</v>
-      </c>
-      <c r="D26" s="66">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="C26" t="s" s="62">
+        <v>25</v>
+      </c>
+      <c r="D26" s="63">
+        <v>3</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="26"/>
@@ -6830,15 +6796,15 @@
       <c r="N26" s="26"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="66"/>
       <c r="B27" t="s" s="61">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s" s="65">
-        <v>25</v>
-      </c>
-      <c r="D27" s="66">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="C27" t="s" s="62">
+        <v>26</v>
+      </c>
+      <c r="D27" s="63">
+        <v>2</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="26"/>
@@ -6852,15 +6818,15 @@
       <c r="N27" s="26"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="68"/>
+      <c r="A28" s="66"/>
       <c r="B28" t="s" s="61">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s" s="65">
-        <v>26</v>
-      </c>
-      <c r="D28" s="66">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="C28" t="s" s="62">
+        <v>27</v>
+      </c>
+      <c r="D28" s="63">
+        <v>5</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="26"/>
@@ -6874,15 +6840,15 @@
       <c r="N28" s="26"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="68"/>
+      <c r="A29" s="66"/>
       <c r="B29" t="s" s="61">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s" s="65">
-        <v>27</v>
-      </c>
-      <c r="D29" s="66">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="C29" t="s" s="62">
+        <v>28</v>
+      </c>
+      <c r="D29" s="63">
+        <v>7</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="26"/>
@@ -6896,15 +6862,15 @@
       <c r="N29" s="26"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="68"/>
+      <c r="A30" s="66"/>
       <c r="B30" t="s" s="61">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s" s="65">
-        <v>28</v>
-      </c>
-      <c r="D30" s="66">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="C30" t="s" s="62">
+        <v>29</v>
+      </c>
+      <c r="D30" s="63">
+        <v>4</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="26"/>
@@ -6918,14 +6884,14 @@
       <c r="N30" s="26"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="68"/>
+      <c r="A31" s="66"/>
       <c r="B31" t="s" s="61">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s" s="65">
-        <v>29</v>
-      </c>
-      <c r="D31" s="66">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s" s="62">
+        <v>30</v>
+      </c>
+      <c r="D31" s="63">
         <v>4</v>
       </c>
       <c r="E31" s="41"/>
@@ -6940,15 +6906,15 @@
       <c r="N31" s="26"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="68"/>
+      <c r="A32" s="66"/>
       <c r="B32" t="s" s="61">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s" s="65">
-        <v>30</v>
-      </c>
-      <c r="D32" s="66">
-        <v>4</v>
+        <v>124</v>
+      </c>
+      <c r="C32" t="s" s="62">
+        <v>31</v>
+      </c>
+      <c r="D32" s="63">
+        <v>2</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="26"/>
@@ -6962,15 +6928,15 @@
       <c r="N32" s="26"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="68"/>
+      <c r="A33" s="66"/>
       <c r="B33" t="s" s="61">
-        <v>125</v>
-      </c>
-      <c r="C33" t="s" s="65">
-        <v>31</v>
-      </c>
-      <c r="D33" s="66">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="C33" t="s" s="62">
+        <v>32</v>
+      </c>
+      <c r="D33" s="63">
+        <v>5</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="26"/>
@@ -6984,15 +6950,15 @@
       <c r="N33" s="26"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="68"/>
+      <c r="A34" s="66"/>
       <c r="B34" t="s" s="61">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s" s="65">
-        <v>32</v>
-      </c>
-      <c r="D34" s="66">
-        <v>5</v>
+        <v>91</v>
+      </c>
+      <c r="C34" t="s" s="62">
+        <v>33</v>
+      </c>
+      <c r="D34" s="63">
+        <v>7</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="26"/>
@@ -7006,15 +6972,15 @@
       <c r="N34" s="26"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="68"/>
+      <c r="A35" s="66"/>
       <c r="B35" t="s" s="61">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s" s="65">
-        <v>33</v>
-      </c>
-      <c r="D35" s="66">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="C35" t="s" s="62">
+        <v>34</v>
+      </c>
+      <c r="D35" s="63">
+        <v>9</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="26"/>
@@ -7028,15 +6994,15 @@
       <c r="N35" s="26"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="68"/>
+      <c r="A36" s="66"/>
       <c r="B36" t="s" s="61">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s" s="65">
-        <v>34</v>
-      </c>
-      <c r="D36" s="66">
-        <v>9</v>
+        <v>93</v>
+      </c>
+      <c r="C36" t="s" s="62">
+        <v>35</v>
+      </c>
+      <c r="D36" s="63">
+        <v>4</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="26"/>
@@ -7050,15 +7016,15 @@
       <c r="N36" s="26"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="68"/>
+      <c r="A37" s="66"/>
       <c r="B37" t="s" s="61">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s" s="65">
-        <v>35</v>
-      </c>
-      <c r="D37" s="66">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="C37" t="s" s="62">
+        <v>36</v>
+      </c>
+      <c r="D37" s="63">
+        <v>2</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="26"/>
@@ -7072,15 +7038,15 @@
       <c r="N37" s="26"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="68"/>
+      <c r="A38" s="66"/>
       <c r="B38" t="s" s="61">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s" s="65">
-        <v>36</v>
-      </c>
-      <c r="D38" s="66">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="C38" t="s" s="62">
+        <v>37</v>
+      </c>
+      <c r="D38" s="63">
+        <v>6</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="26"/>
@@ -7094,15 +7060,15 @@
       <c r="N38" s="26"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="68"/>
+      <c r="A39" s="66"/>
       <c r="B39" t="s" s="61">
-        <v>95</v>
-      </c>
-      <c r="C39" t="s" s="65">
-        <v>37</v>
-      </c>
-      <c r="D39" s="66">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="C39" t="s" s="62">
+        <v>38</v>
+      </c>
+      <c r="D39" s="63">
+        <v>3</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="26"/>
@@ -7116,15 +7082,15 @@
       <c r="N39" s="26"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="68"/>
+      <c r="A40" s="66"/>
       <c r="B40" t="s" s="61">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s" s="65">
-        <v>38</v>
-      </c>
-      <c r="D40" s="66">
-        <v>3</v>
+        <v>97</v>
+      </c>
+      <c r="C40" t="s" s="62">
+        <v>39</v>
+      </c>
+      <c r="D40" s="63">
+        <v>2</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="26"/>
@@ -7138,15 +7104,15 @@
       <c r="N40" s="26"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="68"/>
+      <c r="A41" s="66"/>
       <c r="B41" t="s" s="61">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s" s="65">
-        <v>39</v>
-      </c>
-      <c r="D41" s="66">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="C41" t="s" s="62">
+        <v>40</v>
+      </c>
+      <c r="D41" s="63">
+        <v>6</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="26"/>
@@ -7160,15 +7126,15 @@
       <c r="N41" s="26"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="68"/>
+      <c r="A42" s="66"/>
       <c r="B42" t="s" s="61">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s" s="65">
-        <v>40</v>
-      </c>
-      <c r="D42" s="66">
-        <v>6</v>
+        <v>99</v>
+      </c>
+      <c r="C42" t="s" s="62">
+        <v>41</v>
+      </c>
+      <c r="D42" s="63">
+        <v>5</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="26"/>
@@ -7182,15 +7148,15 @@
       <c r="N42" s="26"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="68"/>
+      <c r="A43" s="66"/>
       <c r="B43" t="s" s="61">
-        <v>99</v>
-      </c>
-      <c r="C43" t="s" s="65">
-        <v>41</v>
-      </c>
-      <c r="D43" s="66">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="C43" t="s" s="62">
+        <v>42</v>
+      </c>
+      <c r="D43" s="63">
+        <v>3</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="26"/>
@@ -7204,15 +7170,15 @@
       <c r="N43" s="26"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="68"/>
+      <c r="A44" s="66"/>
       <c r="B44" t="s" s="61">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s" s="65">
-        <v>42</v>
-      </c>
-      <c r="D44" s="66">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="C44" t="s" s="62">
+        <v>43</v>
+      </c>
+      <c r="D44" s="63">
+        <v>5</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="26"/>
@@ -7226,15 +7192,15 @@
       <c r="N44" s="26"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="68"/>
+      <c r="A45" s="66"/>
       <c r="B45" t="s" s="61">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s" s="65">
-        <v>43</v>
-      </c>
-      <c r="D45" s="66">
-        <v>5</v>
+        <v>102</v>
+      </c>
+      <c r="C45" t="s" s="62">
+        <v>44</v>
+      </c>
+      <c r="D45" s="63">
+        <v>36</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="26"/>
@@ -7248,15 +7214,15 @@
       <c r="N45" s="26"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="68"/>
+      <c r="A46" s="66"/>
       <c r="B46" t="s" s="61">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s" s="65">
-        <v>44</v>
-      </c>
-      <c r="D46" s="66">
-        <v>36</v>
+        <v>103</v>
+      </c>
+      <c r="C46" t="s" s="62">
+        <v>45</v>
+      </c>
+      <c r="D46" s="63">
+        <v>7</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="26"/>
@@ -7270,15 +7236,15 @@
       <c r="N46" s="26"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="68"/>
+      <c r="A47" s="66"/>
       <c r="B47" t="s" s="61">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s" s="65">
-        <v>45</v>
-      </c>
-      <c r="D47" s="66">
-        <v>7</v>
+        <v>104</v>
+      </c>
+      <c r="C47" t="s" s="62">
+        <v>46</v>
+      </c>
+      <c r="D47" s="63">
+        <v>1</v>
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="26"/>
@@ -7292,15 +7258,15 @@
       <c r="N47" s="26"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="68"/>
+      <c r="A48" s="66"/>
       <c r="B48" t="s" s="61">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s" s="65">
-        <v>46</v>
-      </c>
-      <c r="D48" s="66">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="C48" t="s" s="62">
+        <v>47</v>
+      </c>
+      <c r="D48" s="63">
+        <v>4</v>
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="26"/>
@@ -7314,15 +7280,15 @@
       <c r="N48" s="26"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="68"/>
+      <c r="A49" s="66"/>
       <c r="B49" t="s" s="61">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s" s="65">
-        <v>47</v>
-      </c>
-      <c r="D49" s="66">
-        <v>4</v>
+        <v>106</v>
+      </c>
+      <c r="C49" t="s" s="62">
+        <v>48</v>
+      </c>
+      <c r="D49" s="63">
+        <v>57</v>
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="26"/>
@@ -7336,15 +7302,15 @@
       <c r="N49" s="26"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="68"/>
+      <c r="A50" s="66"/>
       <c r="B50" t="s" s="61">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s" s="65">
-        <v>48</v>
-      </c>
-      <c r="D50" s="66">
-        <v>57</v>
+        <v>107</v>
+      </c>
+      <c r="C50" t="s" s="62">
+        <v>49</v>
+      </c>
+      <c r="D50" s="63">
+        <v>3</v>
       </c>
       <c r="E50" s="41"/>
       <c r="F50" s="26"/>
@@ -7358,15 +7324,15 @@
       <c r="N50" s="26"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="68"/>
+      <c r="A51" s="66"/>
       <c r="B51" t="s" s="61">
-        <v>107</v>
-      </c>
-      <c r="C51" t="s" s="65">
-        <v>49</v>
-      </c>
-      <c r="D51" s="66">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="C51" t="s" s="62">
+        <v>50</v>
+      </c>
+      <c r="D51" s="63">
+        <v>1</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="26"/>
@@ -7380,15 +7346,15 @@
       <c r="N51" s="26"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="68"/>
+      <c r="A52" s="66"/>
       <c r="B52" t="s" s="61">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s" s="65">
-        <v>50</v>
-      </c>
-      <c r="D52" s="66">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="C52" t="s" s="62">
+        <v>51</v>
+      </c>
+      <c r="D52" s="63">
+        <v>7</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="26"/>
@@ -7402,15 +7368,15 @@
       <c r="N52" s="26"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="68"/>
+      <c r="A53" s="66"/>
       <c r="B53" t="s" s="61">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s" s="65">
-        <v>51</v>
-      </c>
-      <c r="D53" s="66">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="C53" t="s" s="62">
+        <v>52</v>
+      </c>
+      <c r="D53" s="63">
+        <v>4</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="26"/>
@@ -7424,15 +7390,15 @@
       <c r="N53" s="26"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="68"/>
+      <c r="A54" s="66"/>
       <c r="B54" t="s" s="61">
-        <v>110</v>
-      </c>
-      <c r="C54" t="s" s="65">
-        <v>52</v>
-      </c>
-      <c r="D54" s="66">
-        <v>4</v>
+        <v>111</v>
+      </c>
+      <c r="C54" t="s" s="62">
+        <v>53</v>
+      </c>
+      <c r="D54" s="63">
+        <v>2</v>
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="26"/>
@@ -7446,15 +7412,15 @@
       <c r="N54" s="26"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="68"/>
+      <c r="A55" s="66"/>
       <c r="B55" t="s" s="61">
-        <v>111</v>
-      </c>
-      <c r="C55" t="s" s="65">
-        <v>53</v>
-      </c>
-      <c r="D55" s="66">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="C55" t="s" s="62">
+        <v>54</v>
+      </c>
+      <c r="D55" s="63">
+        <v>6</v>
       </c>
       <c r="E55" s="41"/>
       <c r="F55" s="26"/>
@@ -7468,15 +7434,15 @@
       <c r="N55" s="26"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="68"/>
+      <c r="A56" s="66"/>
       <c r="B56" t="s" s="61">
-        <v>112</v>
-      </c>
-      <c r="C56" t="s" s="65">
-        <v>54</v>
-      </c>
-      <c r="D56" s="66">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="C56" t="s" s="62">
+        <v>55</v>
+      </c>
+      <c r="D56" s="63">
+        <v>8</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="26"/>
@@ -7490,15 +7456,15 @@
       <c r="N56" s="26"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="68"/>
+      <c r="A57" s="66"/>
       <c r="B57" t="s" s="61">
-        <v>113</v>
-      </c>
-      <c r="C57" t="s" s="65">
-        <v>55</v>
-      </c>
-      <c r="D57" s="66">
-        <v>8</v>
+        <v>114</v>
+      </c>
+      <c r="C57" t="s" s="62">
+        <v>56</v>
+      </c>
+      <c r="D57" s="63">
+        <v>2</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="26"/>
@@ -7512,14 +7478,14 @@
       <c r="N57" s="26"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="68"/>
+      <c r="A58" s="66"/>
       <c r="B58" t="s" s="61">
-        <v>114</v>
-      </c>
-      <c r="C58" t="s" s="65">
-        <v>56</v>
-      </c>
-      <c r="D58" s="66">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s" s="62">
+        <v>57</v>
+      </c>
+      <c r="D58" s="63">
         <v>2</v>
       </c>
       <c r="E58" s="41"/>
@@ -7534,15 +7500,15 @@
       <c r="N58" s="26"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="68"/>
+      <c r="A59" s="66"/>
       <c r="B59" t="s" s="61">
-        <v>115</v>
-      </c>
-      <c r="C59" t="s" s="65">
-        <v>57</v>
-      </c>
-      <c r="D59" s="66">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="C59" t="s" s="62">
+        <v>58</v>
+      </c>
+      <c r="D59" s="63">
+        <v>6</v>
       </c>
       <c r="E59" s="41"/>
       <c r="F59" s="26"/>
@@ -7556,15 +7522,15 @@
       <c r="N59" s="26"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="68"/>
+      <c r="A60" s="66"/>
       <c r="B60" t="s" s="61">
-        <v>116</v>
-      </c>
-      <c r="C60" t="s" s="65">
-        <v>58</v>
-      </c>
-      <c r="D60" s="66">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="C60" t="s" s="62">
+        <v>59</v>
+      </c>
+      <c r="D60" s="63">
+        <v>1</v>
       </c>
       <c r="E60" s="41"/>
       <c r="F60" s="26"/>
@@ -7578,16 +7544,10 @@
       <c r="N60" s="26"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="68"/>
-      <c r="B61" t="s" s="61">
-        <v>117</v>
-      </c>
-      <c r="C61" t="s" s="65">
-        <v>59</v>
-      </c>
-      <c r="D61" s="66">
-        <v>1</v>
-      </c>
+      <c r="A61" s="66"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="63"/>
       <c r="E61" s="41"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
@@ -7600,10 +7560,10 @@
       <c r="N61" s="26"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="68"/>
-      <c r="B62" s="62"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="26"/>
-      <c r="D62" s="66"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="41"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
@@ -7616,10 +7576,10 @@
       <c r="N62" s="26"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="68"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="41"/>
       <c r="C63" s="26"/>
-      <c r="D63" s="66"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="41"/>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -7632,10 +7592,10 @@
       <c r="N63" s="26"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="68"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="41"/>
       <c r="C64" s="26"/>
-      <c r="D64" s="66"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="41"/>
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
@@ -7648,10 +7608,10 @@
       <c r="N64" s="26"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="68"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="41"/>
       <c r="C65" s="26"/>
-      <c r="D65" s="66"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="41"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
@@ -7664,10 +7624,10 @@
       <c r="N65" s="26"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="68"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="41"/>
       <c r="C66" s="26"/>
-      <c r="D66" s="66"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="41"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
@@ -7680,10 +7640,10 @@
       <c r="N66" s="26"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="68"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="41"/>
       <c r="C67" s="26"/>
-      <c r="D67" s="66"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="41"/>
       <c r="F67" s="26"/>
       <c r="G67" s="26"/>
@@ -7696,10 +7656,10 @@
       <c r="N67" s="26"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="68"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="41"/>
       <c r="C68" s="26"/>
-      <c r="D68" s="66"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="41"/>
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
@@ -7712,10 +7672,10 @@
       <c r="N68" s="26"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="68"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="41"/>
       <c r="C69" s="26"/>
-      <c r="D69" s="66"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="41"/>
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
@@ -7728,10 +7688,10 @@
       <c r="N69" s="26"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="68"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="41"/>
       <c r="C70" s="26"/>
-      <c r="D70" s="66"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="41"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
@@ -7744,10 +7704,10 @@
       <c r="N70" s="26"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="68"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="41"/>
       <c r="C71" s="26"/>
-      <c r="D71" s="66"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="41"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -7760,10 +7720,10 @@
       <c r="N71" s="26"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="68"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="41"/>
       <c r="C72" s="26"/>
-      <c r="D72" s="66"/>
+      <c r="D72" s="63"/>
       <c r="E72" s="41"/>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
@@ -7776,10 +7736,10 @@
       <c r="N72" s="26"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="68"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="41"/>
       <c r="C73" s="26"/>
-      <c r="D73" s="66"/>
+      <c r="D73" s="63"/>
       <c r="E73" s="41"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -7792,10 +7752,10 @@
       <c r="N73" s="26"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="68"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="41"/>
       <c r="C74" s="26"/>
-      <c r="D74" s="66"/>
+      <c r="D74" s="63"/>
       <c r="E74" s="41"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
@@ -7808,10 +7768,10 @@
       <c r="N74" s="26"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="68"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="41"/>
       <c r="C75" s="26"/>
-      <c r="D75" s="66"/>
+      <c r="D75" s="63"/>
       <c r="E75" s="41"/>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
@@ -7824,10 +7784,10 @@
       <c r="N75" s="26"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="68"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="41"/>
       <c r="C76" s="26"/>
-      <c r="D76" s="66"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="41"/>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
@@ -7840,10 +7800,10 @@
       <c r="N76" s="26"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="68"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="41"/>
       <c r="C77" s="26"/>
-      <c r="D77" s="66"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="41"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
@@ -7856,10 +7816,10 @@
       <c r="N77" s="26"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="68"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="41"/>
       <c r="C78" s="26"/>
-      <c r="D78" s="66"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="41"/>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
@@ -7872,10 +7832,10 @@
       <c r="N78" s="26"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="68"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="41"/>
       <c r="C79" s="26"/>
-      <c r="D79" s="66"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="41"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -7888,10 +7848,10 @@
       <c r="N79" s="26"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="68"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="41"/>
       <c r="C80" s="26"/>
-      <c r="D80" s="66"/>
+      <c r="D80" s="63"/>
       <c r="E80" s="41"/>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -7904,10 +7864,10 @@
       <c r="N80" s="26"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="68"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="41"/>
       <c r="C81" s="26"/>
-      <c r="D81" s="66"/>
+      <c r="D81" s="63"/>
       <c r="E81" s="41"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -7920,10 +7880,10 @@
       <c r="N81" s="26"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="68"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="41"/>
       <c r="C82" s="26"/>
-      <c r="D82" s="66"/>
+      <c r="D82" s="63"/>
       <c r="E82" s="41"/>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -7936,10 +7896,10 @@
       <c r="N82" s="26"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="68"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="41"/>
       <c r="C83" s="26"/>
-      <c r="D83" s="66"/>
+      <c r="D83" s="63"/>
       <c r="E83" s="41"/>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
@@ -7952,10 +7912,10 @@
       <c r="N83" s="26"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="68"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="41"/>
       <c r="C84" s="26"/>
-      <c r="D84" s="66"/>
+      <c r="D84" s="63"/>
       <c r="E84" s="41"/>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
@@ -7968,10 +7928,10 @@
       <c r="N84" s="26"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="68"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="41"/>
       <c r="C85" s="26"/>
-      <c r="D85" s="66"/>
+      <c r="D85" s="63"/>
       <c r="E85" s="41"/>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
@@ -7984,10 +7944,10 @@
       <c r="N85" s="26"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="68"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="41"/>
       <c r="C86" s="26"/>
-      <c r="D86" s="66"/>
+      <c r="D86" s="63"/>
       <c r="E86" s="41"/>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
@@ -8000,10 +7960,10 @@
       <c r="N86" s="26"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="68"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="41"/>
       <c r="C87" s="26"/>
-      <c r="D87" s="66"/>
+      <c r="D87" s="63"/>
       <c r="E87" s="41"/>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -8016,10 +7976,10 @@
       <c r="N87" s="26"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="68"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="41"/>
       <c r="C88" s="26"/>
-      <c r="D88" s="66"/>
+      <c r="D88" s="63"/>
       <c r="E88" s="41"/>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
@@ -8032,10 +7992,10 @@
       <c r="N88" s="26"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="68"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="41"/>
       <c r="C89" s="26"/>
-      <c r="D89" s="66"/>
+      <c r="D89" s="63"/>
       <c r="E89" s="41"/>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
@@ -8048,10 +8008,10 @@
       <c r="N89" s="26"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="68"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="41"/>
       <c r="C90" s="26"/>
-      <c r="D90" s="66"/>
+      <c r="D90" s="63"/>
       <c r="E90" s="41"/>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -8064,10 +8024,10 @@
       <c r="N90" s="26"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="68"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="41"/>
       <c r="C91" s="26"/>
-      <c r="D91" s="66"/>
+      <c r="D91" s="63"/>
       <c r="E91" s="41"/>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -8080,10 +8040,10 @@
       <c r="N91" s="26"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="68"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="41"/>
       <c r="C92" s="26"/>
-      <c r="D92" s="66"/>
+      <c r="D92" s="63"/>
       <c r="E92" s="41"/>
       <c r="F92" s="26"/>
       <c r="G92" s="26"/>
@@ -8096,10 +8056,10 @@
       <c r="N92" s="26"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="68"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="41"/>
       <c r="C93" s="26"/>
-      <c r="D93" s="66"/>
+      <c r="D93" s="63"/>
       <c r="E93" s="41"/>
       <c r="F93" s="26"/>
       <c r="G93" s="26"/>
@@ -8112,10 +8072,10 @@
       <c r="N93" s="26"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="68"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="41"/>
       <c r="C94" s="26"/>
-      <c r="D94" s="66"/>
+      <c r="D94" s="63"/>
       <c r="E94" s="41"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -8128,10 +8088,10 @@
       <c r="N94" s="26"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="68"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="41"/>
       <c r="C95" s="26"/>
-      <c r="D95" s="66"/>
+      <c r="D95" s="63"/>
       <c r="E95" s="41"/>
       <c r="F95" s="26"/>
       <c r="G95" s="26"/>
@@ -8144,10 +8104,10 @@
       <c r="N95" s="26"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="68"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="41"/>
       <c r="C96" s="26"/>
-      <c r="D96" s="66"/>
+      <c r="D96" s="63"/>
       <c r="E96" s="41"/>
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
@@ -8160,10 +8120,10 @@
       <c r="N96" s="26"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="68"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="41"/>
       <c r="C97" s="26"/>
-      <c r="D97" s="66"/>
+      <c r="D97" s="63"/>
       <c r="E97" s="41"/>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -8176,10 +8136,10 @@
       <c r="N97" s="26"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="68"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="41"/>
       <c r="C98" s="26"/>
-      <c r="D98" s="66"/>
+      <c r="D98" s="63"/>
       <c r="E98" s="41"/>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -8195,7 +8155,7 @@
       <c r="A99" s="68"/>
       <c r="B99" s="41"/>
       <c r="C99" s="26"/>
-      <c r="D99" s="66"/>
+      <c r="D99" s="63"/>
       <c r="E99" s="41"/>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -8206,22 +8166,6 @@
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
       <c r="N99" s="26"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="69"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/support/roNotListed.xlsx
+++ b/spec/support/roNotListed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Desktop/tmp/compare/redone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E1252B-B901-9448-A1C8-DEA58CA8C373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E80EA5B-6072-7C42-81AD-E67F8BB0D11C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23340" yWindow="460" windowWidth="15060" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
   <si>
     <t>Example</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Allocation of Regional Office Video Hearings</t>
   </si>
   <si>
-    <t>Number of Hearing Days Allocated in Date Range</t>
-  </si>
-  <si>
     <t>Boston, MA</t>
   </si>
   <si>
@@ -385,6 +382,27 @@
   </si>
   <si>
     <t xml:space="preserve">Des Moines, IA </t>
+  </si>
+  <si>
+    <t>Virtual Days</t>
+  </si>
+  <si>
+    <t># of Video Days</t>
+  </si>
+  <si>
+    <t># of Virtual Days</t>
+  </si>
+  <si>
+    <t>Number of Time Slots</t>
+  </si>
+  <si>
+    <t>Length of Time Slots (Minutes)</t>
+  </si>
+  <si>
+    <t>Start Time (Eastern)</t>
+  </si>
+  <si>
+    <t>8:30</t>
   </si>
 </sst>
 </file>
@@ -394,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -404,16 +422,19 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -425,41 +446,84 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Source Sans Pro"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +572,38 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -712,19 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="12"/>
       </left>
@@ -809,71 +890,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -939,11 +955,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,14 +1168,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,43 +1188,22 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,12 +1216,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2260,9 +2455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.5" style="1" customWidth="1"/>
@@ -2271,23 +2466,23 @@
     <col min="6" max="254" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="56" customHeight="1">
+    <row r="1" spans="1:56" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -2333,7 +2528,7 @@
       <c r="BC1" s="4"/>
       <c r="BD1" s="5"/>
     </row>
-    <row r="2" spans="1:56" ht="39" customHeight="1">
+    <row r="2" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2503,7 +2698,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="34" customHeight="1">
+    <row r="3" spans="1:56" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>58</v>
       </c>
@@ -2673,7 +2868,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="32" customHeight="1">
+    <row r="4" spans="1:56" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>114</v>
       </c>
@@ -2843,7 +3038,7 @@
         <v>43114</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="17" customHeight="1">
+    <row r="5" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17">
         <v>43497</v>
@@ -3011,7 +3206,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="17" customHeight="1">
+    <row r="6" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="19">
         <v>43540</v>
@@ -3179,7 +3374,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="17" customHeight="1">
+    <row r="7" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="20">
         <v>43576</v>
@@ -3347,7 +3542,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="17" customHeight="1">
+    <row r="8" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="21">
         <v>43604</v>
@@ -3407,7 +3602,7 @@
       <c r="BC8" s="23"/>
       <c r="BD8" s="23"/>
     </row>
-    <row r="9" spans="1:56" ht="17" customHeight="1">
+    <row r="9" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -3465,7 +3660,7 @@
       <c r="BC9" s="23"/>
       <c r="BD9" s="23"/>
     </row>
-    <row r="10" spans="1:56" ht="17" customHeight="1">
+    <row r="10" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
@@ -3523,7 +3718,7 @@
       <c r="BC10" s="22"/>
       <c r="BD10" s="22"/>
     </row>
-    <row r="11" spans="1:56" ht="17" customHeight="1">
+    <row r="11" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="28"/>
       <c r="C11" s="25"/>
@@ -3581,7 +3776,7 @@
       <c r="BC11" s="25"/>
       <c r="BD11" s="29"/>
     </row>
-    <row r="12" spans="1:56" ht="17" customHeight="1">
+    <row r="12" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
@@ -3639,7 +3834,7 @@
       <c r="BC12" s="27"/>
       <c r="BD12" s="27"/>
     </row>
-    <row r="13" spans="1:56" ht="17" customHeight="1">
+    <row r="13" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="28"/>
       <c r="C13" s="25"/>
@@ -3697,7 +3892,7 @@
       <c r="BC13" s="25"/>
       <c r="BD13" s="29"/>
     </row>
-    <row r="14" spans="1:56" ht="17" customHeight="1">
+    <row r="14" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
@@ -3755,7 +3950,7 @@
       <c r="BC14" s="27"/>
       <c r="BD14" s="27"/>
     </row>
-    <row r="15" spans="1:56" ht="17" customHeight="1">
+    <row r="15" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="28"/>
       <c r="C15" s="25"/>
@@ -3813,7 +4008,7 @@
       <c r="BC15" s="25"/>
       <c r="BD15" s="29"/>
     </row>
-    <row r="16" spans="1:56" ht="17" customHeight="1">
+    <row r="16" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
@@ -3871,7 +4066,7 @@
       <c r="BC16" s="27"/>
       <c r="BD16" s="27"/>
     </row>
-    <row r="17" spans="1:56" ht="17" customHeight="1">
+    <row r="17" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="28"/>
       <c r="C17" s="25"/>
@@ -3929,7 +4124,7 @@
       <c r="BC17" s="25"/>
       <c r="BD17" s="29"/>
     </row>
-    <row r="18" spans="1:56" ht="17" customHeight="1">
+    <row r="18" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
@@ -3987,7 +4182,7 @@
       <c r="BC18" s="27"/>
       <c r="BD18" s="27"/>
     </row>
-    <row r="19" spans="1:56" ht="17" customHeight="1">
+    <row r="19" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="28"/>
       <c r="C19" s="25"/>
@@ -4045,7 +4240,7 @@
       <c r="BC19" s="25"/>
       <c r="BD19" s="29"/>
     </row>
-    <row r="20" spans="1:56" ht="17" customHeight="1">
+    <row r="20" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
@@ -4103,7 +4298,7 @@
       <c r="BC20" s="27"/>
       <c r="BD20" s="27"/>
     </row>
-    <row r="21" spans="1:56" ht="17" customHeight="1">
+    <row r="21" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="28"/>
       <c r="C21" s="25"/>
@@ -4161,7 +4356,7 @@
       <c r="BC21" s="25"/>
       <c r="BD21" s="29"/>
     </row>
-    <row r="22" spans="1:56" ht="17" customHeight="1">
+    <row r="22" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
@@ -4219,7 +4414,7 @@
       <c r="BC22" s="27"/>
       <c r="BD22" s="27"/>
     </row>
-    <row r="23" spans="1:56" ht="17" customHeight="1">
+    <row r="23" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="28"/>
       <c r="C23" s="25"/>
@@ -4277,7 +4472,7 @@
       <c r="BC23" s="25"/>
       <c r="BD23" s="29"/>
     </row>
-    <row r="24" spans="1:56" ht="17" customHeight="1">
+    <row r="24" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
@@ -4335,7 +4530,7 @@
       <c r="BC24" s="27"/>
       <c r="BD24" s="27"/>
     </row>
-    <row r="25" spans="1:56" ht="17" customHeight="1">
+    <row r="25" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="28"/>
       <c r="C25" s="25"/>
@@ -4393,7 +4588,7 @@
       <c r="BC25" s="25"/>
       <c r="BD25" s="29"/>
     </row>
-    <row r="26" spans="1:56" ht="17" customHeight="1">
+    <row r="26" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -4451,7 +4646,7 @@
       <c r="BC26" s="27"/>
       <c r="BD26" s="27"/>
     </row>
-    <row r="27" spans="1:56" ht="17" customHeight="1">
+    <row r="27" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="28"/>
       <c r="C27" s="25"/>
@@ -4509,7 +4704,7 @@
       <c r="BC27" s="25"/>
       <c r="BD27" s="29"/>
     </row>
-    <row r="28" spans="1:56" ht="17" customHeight="1">
+    <row r="28" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -4567,7 +4762,7 @@
       <c r="BC28" s="27"/>
       <c r="BD28" s="27"/>
     </row>
-    <row r="29" spans="1:56" ht="17" customHeight="1">
+    <row r="29" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="28"/>
       <c r="C29" s="25"/>
@@ -4625,7 +4820,7 @@
       <c r="BC29" s="25"/>
       <c r="BD29" s="29"/>
     </row>
-    <row r="30" spans="1:56" ht="17" customHeight="1">
+    <row r="30" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
@@ -4683,7 +4878,7 @@
       <c r="BC30" s="27"/>
       <c r="BD30" s="27"/>
     </row>
-    <row r="31" spans="1:56" ht="17" customHeight="1">
+    <row r="31" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="28"/>
       <c r="C31" s="25"/>
@@ -4741,7 +4936,7 @@
       <c r="BC31" s="25"/>
       <c r="BD31" s="29"/>
     </row>
-    <row r="32" spans="1:56" ht="17" customHeight="1">
+    <row r="32" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
@@ -4799,7 +4994,7 @@
       <c r="BC32" s="27"/>
       <c r="BD32" s="27"/>
     </row>
-    <row r="33" spans="1:56" ht="17" customHeight="1">
+    <row r="33" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="28"/>
       <c r="C33" s="25"/>
@@ -4857,7 +5052,7 @@
       <c r="BC33" s="25"/>
       <c r="BD33" s="29"/>
     </row>
-    <row r="34" spans="1:56" ht="17" customHeight="1">
+    <row r="34" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
@@ -4915,7 +5110,7 @@
       <c r="BC34" s="27"/>
       <c r="BD34" s="27"/>
     </row>
-    <row r="35" spans="1:56" ht="17" customHeight="1">
+    <row r="35" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="28"/>
       <c r="C35" s="25"/>
@@ -4973,7 +5168,7 @@
       <c r="BC35" s="25"/>
       <c r="BD35" s="29"/>
     </row>
-    <row r="36" spans="1:56" ht="17" customHeight="1">
+    <row r="36" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
@@ -5031,7 +5226,7 @@
       <c r="BC36" s="27"/>
       <c r="BD36" s="27"/>
     </row>
-    <row r="37" spans="1:56" ht="17" customHeight="1">
+    <row r="37" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="28"/>
       <c r="C37" s="25"/>
@@ -5089,7 +5284,7 @@
       <c r="BC37" s="25"/>
       <c r="BD37" s="29"/>
     </row>
-    <row r="38" spans="1:56" ht="17" customHeight="1">
+    <row r="38" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
@@ -5147,7 +5342,7 @@
       <c r="BC38" s="27"/>
       <c r="BD38" s="27"/>
     </row>
-    <row r="39" spans="1:56" ht="17" customHeight="1">
+    <row r="39" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="28"/>
       <c r="C39" s="25"/>
@@ -5205,7 +5400,7 @@
       <c r="BC39" s="25"/>
       <c r="BD39" s="29"/>
     </row>
-    <row r="40" spans="1:56" ht="17" customHeight="1">
+    <row r="40" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="26"/>
       <c r="C40" s="27"/>
@@ -5263,7 +5458,7 @@
       <c r="BC40" s="27"/>
       <c r="BD40" s="27"/>
     </row>
-    <row r="41" spans="1:56" ht="17" customHeight="1">
+    <row r="41" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="28"/>
       <c r="C41" s="25"/>
@@ -5321,7 +5516,7 @@
       <c r="BC41" s="25"/>
       <c r="BD41" s="29"/>
     </row>
-    <row r="42" spans="1:56" ht="17" customHeight="1">
+    <row r="42" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
@@ -5379,7 +5574,7 @@
       <c r="BC42" s="27"/>
       <c r="BD42" s="27"/>
     </row>
-    <row r="43" spans="1:56" ht="17" customHeight="1">
+    <row r="43" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="28"/>
       <c r="C43" s="25"/>
@@ -5437,7 +5632,7 @@
       <c r="BC43" s="25"/>
       <c r="BD43" s="29"/>
     </row>
-    <row r="44" spans="1:56" ht="17" customHeight="1">
+    <row r="44" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="26"/>
       <c r="C44" s="27"/>
@@ -5495,7 +5690,7 @@
       <c r="BC44" s="27"/>
       <c r="BD44" s="27"/>
     </row>
-    <row r="45" spans="1:56" ht="17" customHeight="1">
+    <row r="45" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="28"/>
       <c r="C45" s="25"/>
@@ -5553,7 +5748,7 @@
       <c r="BC45" s="25"/>
       <c r="BD45" s="29"/>
     </row>
-    <row r="46" spans="1:56" ht="17" customHeight="1">
+    <row r="46" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="26"/>
       <c r="C46" s="27"/>
@@ -5611,7 +5806,7 @@
       <c r="BC46" s="27"/>
       <c r="BD46" s="27"/>
     </row>
-    <row r="47" spans="1:56" ht="17" customHeight="1">
+    <row r="47" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="28"/>
       <c r="C47" s="25"/>
@@ -5669,7 +5864,7 @@
       <c r="BC47" s="25"/>
       <c r="BD47" s="29"/>
     </row>
-    <row r="48" spans="1:56" ht="17" customHeight="1">
+    <row r="48" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="26"/>
       <c r="C48" s="27"/>
@@ -5727,7 +5922,7 @@
       <c r="BC48" s="27"/>
       <c r="BD48" s="27"/>
     </row>
-    <row r="49" spans="1:56" ht="17" customHeight="1">
+    <row r="49" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="28"/>
       <c r="C49" s="25"/>
@@ -5785,7 +5980,7 @@
       <c r="BC49" s="25"/>
       <c r="BD49" s="29"/>
     </row>
-    <row r="50" spans="1:56" ht="17" customHeight="1">
+    <row r="50" spans="1:56" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="32"/>
@@ -5863,23 +6058,23 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="33" customWidth="1"/>
     <col min="2" max="2" width="48" style="33" customWidth="1"/>
     <col min="3" max="256" width="8.6640625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="34"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="36" t="s">
         <v>114</v>
@@ -5888,7 +6083,7 @@
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:5" ht="36.75" customHeight="1">
+    <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -5899,7 +6094,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="15">
         <v>43114</v>
@@ -5908,7 +6103,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="18">
         <v>43115</v>
@@ -5917,7 +6112,7 @@
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="18">
         <v>43225</v>
@@ -5926,7 +6121,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="18">
         <v>43191</v>
@@ -5935,21 +6130,21 @@
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -5970,13 +6165,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV97"/>
+  <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="40" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="40" customWidth="1"/>
@@ -5986,39 +6181,35 @@
     <col min="6" max="256" width="11" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-    </row>
-    <row r="2" spans="1:14" ht="47" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -6026,23 +6217,29 @@
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="50">
-        <v>10</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+    <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>125</v>
+      </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
@@ -6050,21 +6247,31 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="54">
-        <v>4</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="71">
+        <v>10</v>
+      </c>
+      <c r="E4" s="72">
+        <v>50</v>
+      </c>
+      <c r="F4" s="72">
+        <v>8</v>
+      </c>
+      <c r="G4" s="72">
+        <v>60</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>126</v>
+      </c>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
@@ -6072,21 +6279,29 @@
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="53" t="s">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="45">
         <v>4</v>
       </c>
-      <c r="D5" s="54">
-        <v>10</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -6094,21 +6309,29 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="54">
-        <v>11</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="45">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -6116,21 +6339,29 @@
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="54">
-        <v>4</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="45">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
@@ -6138,21 +6369,29 @@
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="54">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="D8" s="45">
+        <v>4</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -6160,21 +6399,29 @@
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="54">
-        <v>3</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="45">
+        <v>6</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
@@ -6182,21 +6429,29 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="54">
-        <v>1</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="45">
+        <v>3</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
@@ -6204,21 +6459,29 @@
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="54">
-        <v>6</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="45">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
@@ -6226,21 +6489,29 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="54">
-        <v>8</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="45">
+        <v>6</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
@@ -6248,21 +6519,29 @@
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="54">
-        <v>9</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="45">
+        <v>8</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
@@ -6270,21 +6549,29 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="54">
-        <v>5</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="45">
+        <v>9</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
@@ -6292,21 +6579,29 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="54">
-        <v>4</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="48"/>
+      <c r="B15" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="45">
+        <v>5</v>
+      </c>
+      <c r="E15" s="34">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
@@ -6314,21 +6609,29 @@
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="54">
-        <v>2</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48"/>
+      <c r="B16" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="45">
+        <v>4</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
@@ -6336,21 +6639,29 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="54">
-        <v>5</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="48"/>
+      <c r="B17" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="45">
+        <v>2</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
@@ -6358,21 +6669,29 @@
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="54">
-        <v>7</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="48"/>
+      <c r="B18" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="45">
+        <v>5</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
@@ -6380,21 +6699,29 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="54">
-        <v>15</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="48"/>
+      <c r="B19" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="45">
+        <v>7</v>
+      </c>
+      <c r="E19" s="34">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
@@ -6402,21 +6729,29 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="54">
-        <v>3</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="48"/>
+      <c r="B20" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="45">
+        <v>15</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
@@ -6424,21 +6759,29 @@
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="54">
-        <v>7</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="48"/>
+      <c r="B21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="45">
+        <v>3</v>
+      </c>
+      <c r="E21" s="34">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
@@ -6446,21 +6789,29 @@
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="54">
-        <v>0</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="45">
+        <v>7</v>
+      </c>
+      <c r="E22" s="34">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -6468,21 +6819,29 @@
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="54">
-        <v>3</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="45">
+        <v>0</v>
+      </c>
+      <c r="E23" s="34">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0</v>
+      </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -6490,21 +6849,29 @@
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="54">
-        <v>7</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="45">
+        <v>3</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -6512,21 +6879,29 @@
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="54">
-        <v>3</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="45">
+        <v>7</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0</v>
+      </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -6534,21 +6909,29 @@
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="54">
-        <v>2</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="45">
+        <v>3</v>
+      </c>
+      <c r="E26" s="34">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0</v>
+      </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
@@ -6556,21 +6939,29 @@
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="54">
-        <v>5</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="45">
+        <v>2</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
+        <v>0</v>
+      </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
@@ -6578,21 +6969,29 @@
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="54">
-        <v>7</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="45">
+        <v>5</v>
+      </c>
+      <c r="E28" s="34">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0</v>
+      </c>
+      <c r="H28" s="23">
+        <v>0</v>
+      </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
@@ -6600,21 +6999,29 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="54">
-        <v>4</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
+      <c r="B29" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="45">
+        <v>7</v>
+      </c>
+      <c r="E29" s="34">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0</v>
+      </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
@@ -6622,21 +7029,29 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="54">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="48"/>
+      <c r="B30" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="45">
         <v>4</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="E30" s="34">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
@@ -6644,21 +7059,29 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="54">
-        <v>2</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="45">
+        <v>4</v>
+      </c>
+      <c r="E31" s="34">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <v>0</v>
+      </c>
+      <c r="H31" s="23">
+        <v>0</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
@@ -6666,21 +7089,29 @@
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="57"/>
-      <c r="B32" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="54">
-        <v>5</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="45">
+        <v>2</v>
+      </c>
+      <c r="E32" s="34">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
@@ -6688,21 +7119,29 @@
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="54">
-        <v>7</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="48"/>
+      <c r="B33" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="45">
+        <v>5</v>
+      </c>
+      <c r="E33" s="34">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0</v>
+      </c>
+      <c r="G33" s="23">
+        <v>0</v>
+      </c>
+      <c r="H33" s="23">
+        <v>0</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
@@ -6710,21 +7149,29 @@
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="57"/>
-      <c r="B34" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="54">
-        <v>9</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="48"/>
+      <c r="B34" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="45">
+        <v>7</v>
+      </c>
+      <c r="E34" s="34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+      <c r="H34" s="23">
+        <v>0</v>
+      </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -6732,21 +7179,29 @@
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="57"/>
-      <c r="B35" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="54">
-        <v>4</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+      <c r="B35" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="45">
+        <v>9</v>
+      </c>
+      <c r="E35" s="34">
+        <v>0</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0</v>
+      </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
@@ -6754,21 +7209,29 @@
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="54">
-        <v>2</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48"/>
+      <c r="B36" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="45">
+        <v>4</v>
+      </c>
+      <c r="E36" s="34">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+      <c r="H36" s="23">
+        <v>0</v>
+      </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
@@ -6776,21 +7239,29 @@
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="57"/>
-      <c r="B37" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="54">
-        <v>6</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="48"/>
+      <c r="B37" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="45">
+        <v>2</v>
+      </c>
+      <c r="E37" s="34">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <v>0</v>
+      </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
@@ -6798,21 +7269,29 @@
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="57"/>
-      <c r="B38" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="54">
-        <v>3</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="48"/>
+      <c r="B38" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="45">
+        <v>6</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0</v>
+      </c>
+      <c r="G38" s="23">
+        <v>0</v>
+      </c>
+      <c r="H38" s="23">
+        <v>0</v>
+      </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
@@ -6820,21 +7299,29 @@
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="57"/>
-      <c r="B39" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="54">
-        <v>2</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="48"/>
+      <c r="B39" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="45">
+        <v>3</v>
+      </c>
+      <c r="E39" s="34">
+        <v>0</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0</v>
+      </c>
+      <c r="G39" s="23">
+        <v>0</v>
+      </c>
+      <c r="H39" s="23">
+        <v>0</v>
+      </c>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
@@ -6842,21 +7329,29 @@
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="54">
-        <v>6</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="45">
+        <v>2</v>
+      </c>
+      <c r="E40" s="34">
+        <v>0</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23">
+        <v>0</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0</v>
+      </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
@@ -6864,21 +7359,29 @@
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="54">
-        <v>5</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="48"/>
+      <c r="B41" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="45">
+        <v>6</v>
+      </c>
+      <c r="E41" s="34">
+        <v>0</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0</v>
+      </c>
+      <c r="G41" s="23">
+        <v>0</v>
+      </c>
+      <c r="H41" s="23">
+        <v>0</v>
+      </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
@@ -6886,21 +7389,29 @@
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="57"/>
-      <c r="B42" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="54">
-        <v>3</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="48"/>
+      <c r="B42" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="45">
+        <v>5</v>
+      </c>
+      <c r="E42" s="34">
+        <v>0</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0</v>
+      </c>
+      <c r="G42" s="23">
+        <v>0</v>
+      </c>
+      <c r="H42" s="23">
+        <v>0</v>
+      </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
@@ -6908,21 +7419,29 @@
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="54">
-        <v>5</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="48"/>
+      <c r="B43" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="45">
+        <v>3</v>
+      </c>
+      <c r="E43" s="34">
+        <v>0</v>
+      </c>
+      <c r="F43" s="23">
+        <v>0</v>
+      </c>
+      <c r="G43" s="23">
+        <v>0</v>
+      </c>
+      <c r="H43" s="23">
+        <v>0</v>
+      </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
@@ -6930,21 +7449,29 @@
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="57"/>
-      <c r="B44" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="54">
-        <v>36</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
+      <c r="B44" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="45">
+        <v>5</v>
+      </c>
+      <c r="E44" s="34">
+        <v>0</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
+        <v>0</v>
+      </c>
+      <c r="H44" s="23">
+        <v>0</v>
+      </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
@@ -6952,21 +7479,29 @@
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="57"/>
-      <c r="B45" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="54">
-        <v>7</v>
-      </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="48"/>
+      <c r="B45" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="45">
+        <v>36</v>
+      </c>
+      <c r="E45" s="34">
+        <v>0</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
+        <v>0</v>
+      </c>
+      <c r="H45" s="23">
+        <v>0</v>
+      </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
@@ -6974,21 +7509,29 @@
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A46" s="57"/>
-      <c r="B46" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="54">
-        <v>1</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="48"/>
+      <c r="B46" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="45">
+        <v>7</v>
+      </c>
+      <c r="E46" s="34">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="H46" s="23">
+        <v>0</v>
+      </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
@@ -6996,21 +7539,29 @@
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="57"/>
-      <c r="B47" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="54">
-        <v>4</v>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="48"/>
+      <c r="B47" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="45">
+        <v>1</v>
+      </c>
+      <c r="E47" s="34">
+        <v>0</v>
+      </c>
+      <c r="F47" s="23">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <v>0</v>
+      </c>
+      <c r="H47" s="23">
+        <v>0</v>
+      </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
@@ -7018,21 +7569,29 @@
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="57"/>
-      <c r="B48" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="54">
-        <v>57</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="48"/>
+      <c r="B48" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="45">
+        <v>4</v>
+      </c>
+      <c r="E48" s="34">
+        <v>0</v>
+      </c>
+      <c r="F48" s="23">
+        <v>0</v>
+      </c>
+      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="H48" s="23">
+        <v>0</v>
+      </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
@@ -7040,21 +7599,29 @@
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="57"/>
-      <c r="B49" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="54">
-        <v>3</v>
-      </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="48"/>
+      <c r="B49" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="45">
+        <v>57</v>
+      </c>
+      <c r="E49" s="34">
+        <v>0</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0</v>
+      </c>
+      <c r="G49" s="23">
+        <v>0</v>
+      </c>
+      <c r="H49" s="23">
+        <v>0</v>
+      </c>
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
@@ -7062,21 +7629,29 @@
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="57"/>
-      <c r="B50" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="54">
-        <v>1</v>
-      </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="48"/>
+      <c r="B50" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="45">
+        <v>3</v>
+      </c>
+      <c r="E50" s="34">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="23">
+        <v>0</v>
+      </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
@@ -7084,21 +7659,29 @@
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="57"/>
-      <c r="B51" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="54">
-        <v>7</v>
-      </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="48"/>
+      <c r="B51" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="45">
+        <v>1</v>
+      </c>
+      <c r="E51" s="34">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23">
+        <v>0</v>
+      </c>
+      <c r="H51" s="23">
+        <v>0</v>
+      </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
@@ -7106,21 +7689,29 @@
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="57"/>
-      <c r="B52" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="54">
-        <v>4</v>
-      </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="48"/>
+      <c r="B52" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="45">
+        <v>7</v>
+      </c>
+      <c r="E52" s="34">
+        <v>0</v>
+      </c>
+      <c r="F52" s="23">
+        <v>0</v>
+      </c>
+      <c r="G52" s="23">
+        <v>0</v>
+      </c>
+      <c r="H52" s="23">
+        <v>0</v>
+      </c>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
@@ -7128,21 +7719,29 @@
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A53" s="57"/>
-      <c r="B53" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="54">
-        <v>2</v>
-      </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="48"/>
+      <c r="B53" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="45">
+        <v>4</v>
+      </c>
+      <c r="E53" s="34">
+        <v>0</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0</v>
+      </c>
+      <c r="G53" s="23">
+        <v>0</v>
+      </c>
+      <c r="H53" s="23">
+        <v>0</v>
+      </c>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
@@ -7150,21 +7749,29 @@
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="54">
-        <v>6</v>
-      </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="48"/>
+      <c r="B54" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="45">
+        <v>2</v>
+      </c>
+      <c r="E54" s="34">
+        <v>0</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <v>0</v>
+      </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
@@ -7172,21 +7779,29 @@
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A55" s="57"/>
-      <c r="B55" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="54">
-        <v>2</v>
-      </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="48"/>
+      <c r="B55" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="45">
+        <v>6</v>
+      </c>
+      <c r="E55" s="34">
+        <v>0</v>
+      </c>
+      <c r="F55" s="23">
+        <v>0</v>
+      </c>
+      <c r="G55" s="23">
+        <v>0</v>
+      </c>
+      <c r="H55" s="23">
+        <v>0</v>
+      </c>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
@@ -7194,21 +7809,29 @@
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A56" s="57"/>
-      <c r="B56" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="54">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="48"/>
+      <c r="B56" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="45">
         <v>2</v>
       </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="E56" s="34">
+        <v>0</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23">
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
+        <v>0</v>
+      </c>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
@@ -7216,21 +7839,29 @@
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A57" s="57"/>
-      <c r="B57" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="54">
-        <v>6</v>
-      </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="48"/>
+      <c r="B57" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="45">
+        <v>2</v>
+      </c>
+      <c r="E57" s="34">
+        <v>0</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0</v>
+      </c>
+      <c r="G57" s="23">
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
+        <v>0</v>
+      </c>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
@@ -7238,21 +7869,29 @@
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="57"/>
-      <c r="B58" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="54">
-        <v>1</v>
-      </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="48"/>
+      <c r="B58" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="45">
+        <v>6</v>
+      </c>
+      <c r="E58" s="34">
+        <v>0</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0</v>
+      </c>
+      <c r="G58" s="23">
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
+        <v>0</v>
+      </c>
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
@@ -7260,15 +7899,29 @@
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A59" s="57"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="48"/>
+      <c r="B59" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="45">
+        <v>1</v>
+      </c>
+      <c r="E59" s="34">
+        <v>0</v>
+      </c>
+      <c r="F59" s="23">
+        <v>0</v>
+      </c>
+      <c r="G59" s="23">
+        <v>0</v>
+      </c>
+      <c r="H59" s="23">
+        <v>0</v>
+      </c>
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
@@ -7276,11 +7929,11 @@
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A60" s="57"/>
-      <c r="B60" s="34"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="23"/>
-      <c r="D60" s="54"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="34"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
@@ -7292,11 +7945,11 @@
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A61" s="57"/>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="48"/>
       <c r="B61" s="34"/>
       <c r="C61" s="23"/>
-      <c r="D61" s="54"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="34"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
@@ -7308,11 +7961,11 @@
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A62" s="57"/>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="48"/>
       <c r="B62" s="34"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="54"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="34"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
@@ -7324,11 +7977,11 @@
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A63" s="57"/>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="48"/>
       <c r="B63" s="34"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="54"/>
+      <c r="D63" s="45"/>
       <c r="E63" s="34"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
@@ -7340,11 +7993,11 @@
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A64" s="57"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="48"/>
       <c r="B64" s="34"/>
       <c r="C64" s="23"/>
-      <c r="D64" s="54"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="34"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
@@ -7356,11 +8009,11 @@
       <c r="M64" s="23"/>
       <c r="N64" s="23"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A65" s="57"/>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="48"/>
       <c r="B65" s="34"/>
       <c r="C65" s="23"/>
-      <c r="D65" s="54"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="34"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
@@ -7372,11 +8025,11 @@
       <c r="M65" s="23"/>
       <c r="N65" s="23"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A66" s="57"/>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="48"/>
       <c r="B66" s="34"/>
       <c r="C66" s="23"/>
-      <c r="D66" s="54"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="34"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
@@ -7388,11 +8041,11 @@
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A67" s="57"/>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="48"/>
       <c r="B67" s="34"/>
       <c r="C67" s="23"/>
-      <c r="D67" s="54"/>
+      <c r="D67" s="45"/>
       <c r="E67" s="34"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
@@ -7404,11 +8057,11 @@
       <c r="M67" s="23"/>
       <c r="N67" s="23"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A68" s="57"/>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="48"/>
       <c r="B68" s="34"/>
       <c r="C68" s="23"/>
-      <c r="D68" s="54"/>
+      <c r="D68" s="45"/>
       <c r="E68" s="34"/>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
@@ -7420,11 +8073,11 @@
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A69" s="57"/>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="48"/>
       <c r="B69" s="34"/>
       <c r="C69" s="23"/>
-      <c r="D69" s="54"/>
+      <c r="D69" s="45"/>
       <c r="E69" s="34"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
@@ -7436,11 +8089,11 @@
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A70" s="57"/>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="48"/>
       <c r="B70" s="34"/>
       <c r="C70" s="23"/>
-      <c r="D70" s="54"/>
+      <c r="D70" s="45"/>
       <c r="E70" s="34"/>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
@@ -7452,11 +8105,11 @@
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A71" s="57"/>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="48"/>
       <c r="B71" s="34"/>
       <c r="C71" s="23"/>
-      <c r="D71" s="54"/>
+      <c r="D71" s="45"/>
       <c r="E71" s="34"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
@@ -7468,11 +8121,11 @@
       <c r="M71" s="23"/>
       <c r="N71" s="23"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="57"/>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="48"/>
       <c r="B72" s="34"/>
       <c r="C72" s="23"/>
-      <c r="D72" s="54"/>
+      <c r="D72" s="45"/>
       <c r="E72" s="34"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
@@ -7484,11 +8137,11 @@
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="57"/>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="48"/>
       <c r="B73" s="34"/>
       <c r="C73" s="23"/>
-      <c r="D73" s="54"/>
+      <c r="D73" s="45"/>
       <c r="E73" s="34"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
@@ -7500,11 +8153,11 @@
       <c r="M73" s="23"/>
       <c r="N73" s="23"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="57"/>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="48"/>
       <c r="B74" s="34"/>
       <c r="C74" s="23"/>
-      <c r="D74" s="54"/>
+      <c r="D74" s="45"/>
       <c r="E74" s="34"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
@@ -7516,11 +8169,11 @@
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="57"/>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="48"/>
       <c r="B75" s="34"/>
       <c r="C75" s="23"/>
-      <c r="D75" s="54"/>
+      <c r="D75" s="45"/>
       <c r="E75" s="34"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
@@ -7532,11 +8185,11 @@
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="57"/>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="48"/>
       <c r="B76" s="34"/>
       <c r="C76" s="23"/>
-      <c r="D76" s="54"/>
+      <c r="D76" s="45"/>
       <c r="E76" s="34"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
@@ -7548,11 +8201,11 @@
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="57"/>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="48"/>
       <c r="B77" s="34"/>
       <c r="C77" s="23"/>
-      <c r="D77" s="54"/>
+      <c r="D77" s="45"/>
       <c r="E77" s="34"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
@@ -7564,11 +8217,11 @@
       <c r="M77" s="23"/>
       <c r="N77" s="23"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="57"/>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="48"/>
       <c r="B78" s="34"/>
       <c r="C78" s="23"/>
-      <c r="D78" s="54"/>
+      <c r="D78" s="45"/>
       <c r="E78" s="34"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
@@ -7580,11 +8233,11 @@
       <c r="M78" s="23"/>
       <c r="N78" s="23"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="57"/>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="48"/>
       <c r="B79" s="34"/>
       <c r="C79" s="23"/>
-      <c r="D79" s="54"/>
+      <c r="D79" s="45"/>
       <c r="E79" s="34"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
@@ -7596,11 +8249,11 @@
       <c r="M79" s="23"/>
       <c r="N79" s="23"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="57"/>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="48"/>
       <c r="B80" s="34"/>
       <c r="C80" s="23"/>
-      <c r="D80" s="54"/>
+      <c r="D80" s="45"/>
       <c r="E80" s="34"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
@@ -7612,11 +8265,11 @@
       <c r="M80" s="23"/>
       <c r="N80" s="23"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="57"/>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="48"/>
       <c r="B81" s="34"/>
       <c r="C81" s="23"/>
-      <c r="D81" s="54"/>
+      <c r="D81" s="45"/>
       <c r="E81" s="34"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
@@ -7628,11 +8281,11 @@
       <c r="M81" s="23"/>
       <c r="N81" s="23"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A82" s="57"/>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="48"/>
       <c r="B82" s="34"/>
       <c r="C82" s="23"/>
-      <c r="D82" s="54"/>
+      <c r="D82" s="45"/>
       <c r="E82" s="34"/>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
@@ -7644,11 +8297,11 @@
       <c r="M82" s="23"/>
       <c r="N82" s="23"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A83" s="57"/>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="48"/>
       <c r="B83" s="34"/>
       <c r="C83" s="23"/>
-      <c r="D83" s="54"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="34"/>
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
@@ -7660,11 +8313,11 @@
       <c r="M83" s="23"/>
       <c r="N83" s="23"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A84" s="57"/>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="48"/>
       <c r="B84" s="34"/>
       <c r="C84" s="23"/>
-      <c r="D84" s="54"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="34"/>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
@@ -7676,11 +8329,11 @@
       <c r="M84" s="23"/>
       <c r="N84" s="23"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A85" s="57"/>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="48"/>
       <c r="B85" s="34"/>
       <c r="C85" s="23"/>
-      <c r="D85" s="54"/>
+      <c r="D85" s="45"/>
       <c r="E85" s="34"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
@@ -7692,11 +8345,11 @@
       <c r="M85" s="23"/>
       <c r="N85" s="23"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A86" s="57"/>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="48"/>
       <c r="B86" s="34"/>
       <c r="C86" s="23"/>
-      <c r="D86" s="54"/>
+      <c r="D86" s="45"/>
       <c r="E86" s="34"/>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
@@ -7708,11 +8361,11 @@
       <c r="M86" s="23"/>
       <c r="N86" s="23"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A87" s="57"/>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="48"/>
       <c r="B87" s="34"/>
       <c r="C87" s="23"/>
-      <c r="D87" s="54"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="34"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
@@ -7724,11 +8377,11 @@
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A88" s="57"/>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="48"/>
       <c r="B88" s="34"/>
       <c r="C88" s="23"/>
-      <c r="D88" s="54"/>
+      <c r="D88" s="45"/>
       <c r="E88" s="34"/>
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
@@ -7740,11 +8393,11 @@
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A89" s="57"/>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="48"/>
       <c r="B89" s="34"/>
       <c r="C89" s="23"/>
-      <c r="D89" s="54"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="34"/>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
@@ -7756,11 +8409,11 @@
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A90" s="57"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="48"/>
       <c r="B90" s="34"/>
       <c r="C90" s="23"/>
-      <c r="D90" s="54"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="34"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
@@ -7772,11 +8425,11 @@
       <c r="M90" s="23"/>
       <c r="N90" s="23"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A91" s="57"/>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="48"/>
       <c r="B91" s="34"/>
       <c r="C91" s="23"/>
-      <c r="D91" s="54"/>
+      <c r="D91" s="45"/>
       <c r="E91" s="34"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
@@ -7788,11 +8441,11 @@
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A92" s="57"/>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="48"/>
       <c r="B92" s="34"/>
       <c r="C92" s="23"/>
-      <c r="D92" s="54"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="34"/>
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
@@ -7804,11 +8457,11 @@
       <c r="M92" s="23"/>
       <c r="N92" s="23"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A93" s="57"/>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="48"/>
       <c r="B93" s="34"/>
       <c r="C93" s="23"/>
-      <c r="D93" s="54"/>
+      <c r="D93" s="45"/>
       <c r="E93" s="34"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
@@ -7820,11 +8473,11 @@
       <c r="M93" s="23"/>
       <c r="N93" s="23"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A94" s="57"/>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="48"/>
       <c r="B94" s="34"/>
       <c r="C94" s="23"/>
-      <c r="D94" s="54"/>
+      <c r="D94" s="45"/>
       <c r="E94" s="34"/>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
@@ -7836,11 +8489,11 @@
       <c r="M94" s="23"/>
       <c r="N94" s="23"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A95" s="57"/>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="48"/>
       <c r="B95" s="34"/>
       <c r="C95" s="23"/>
-      <c r="D95" s="54"/>
+      <c r="D95" s="45"/>
       <c r="E95" s="34"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
@@ -7852,11 +8505,11 @@
       <c r="M95" s="23"/>
       <c r="N95" s="23"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A96" s="57"/>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="48"/>
       <c r="B96" s="34"/>
       <c r="C96" s="23"/>
-      <c r="D96" s="54"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="34"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
@@ -7868,11 +8521,11 @@
       <c r="M96" s="23"/>
       <c r="N96" s="23"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A97" s="59"/>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="48"/>
       <c r="B97" s="34"/>
       <c r="C97" s="23"/>
-      <c r="D97" s="54"/>
+      <c r="D97" s="45"/>
       <c r="E97" s="34"/>
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
@@ -7884,9 +8537,26 @@
       <c r="M97" s="23"/>
       <c r="N97" s="23"/>
     </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="50"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
